--- a/documents/DB定義書.xlsx
+++ b/documents/DB定義書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - ysl.co.jp\ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7468BB24-0EDF-4ADA-83DA-C03B71FEF8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D03339-407C-434F-9283-4574B7EC36B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8910" yWindow="180" windowWidth="11010" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="390" windowWidth="11010" windowHeight="10710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="78">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -172,10 +172,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -228,10 +224,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザPW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
       <t>シメイ</t>
@@ -262,13 +254,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名前</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>匿名</t>
     <rPh sb="0" eb="2">
       <t>トクメイ</t>
@@ -401,13 +386,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>大カテゴリー</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>a_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -441,6 +419,83 @@
   </si>
   <si>
     <t>ins_pw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーPW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0:全員 1:講師のみ 2:受講者のみ</t>
+    <rPh sb="2" eb="4">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウシ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解決</t>
+    <rPh sb="0" eb="2">
+      <t>カイケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>solution</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0:未解決 1:解決済み</t>
+    <rPh sb="2" eb="5">
+      <t>ミカイケツ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カイケツズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わたしもボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>metoo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blob</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -922,8 +977,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -945,13 +1000,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -959,13 +1014,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="7">
-        <v>44354</v>
+        <v>44355</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1002,13 +1057,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -1017,13 +1072,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -1032,13 +1087,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -1305,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1324,7 +1379,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1332,13 +1387,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1348,7 +1403,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1364,7 +1419,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1378,7 +1433,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1428,27 +1483,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E10" s="3">
         <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -1460,13 +1515,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -1474,11 +1529,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -1490,13 +1545,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -1504,7 +1559,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1521,22 +1576,22 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -1548,13 +1603,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E14" s="3">
         <v>20</v>
@@ -1564,7 +1619,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -1843,7 +1898,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1857,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A05C91-D439-4FD5-A784-163B0AF6EB64}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1876,7 +1931,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1884,13 +1939,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1900,7 +1955,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1916,7 +1971,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1930,7 +1985,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1980,21 +2035,24 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="3">
+        <f>10^30</f>
+        <v>1E+30</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="3">
-        <v>30</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2008,13 +2066,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2022,10 +2080,14 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="L11" t="str">
         <f>C12&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>name smallint ,</v>
@@ -2036,13 +2098,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -2050,7 +2112,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2064,13 +2126,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2080,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L13" t="str">
         <f>C14&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -2092,13 +2154,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E14" s="3">
         <v>20</v>
@@ -2106,7 +2168,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -2120,13 +2182,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E15" s="3">
         <v>20</v>
@@ -2134,7 +2196,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2148,13 +2210,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2172,13 +2234,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E17" s="3">
         <v>30</v>
@@ -2186,7 +2248,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -2200,21 +2262,21 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="E18" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -2227,15 +2289,25 @@
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="L19" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
         <v>#REF!</v>
@@ -2245,27 +2317,41 @@
       <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" ref="L18:L29" si="0">C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <f t="shared" ref="L20:L29" si="0">C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <v>metoo int ,</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -2274,7 +2360,7 @@
       <c r="J21" s="3"/>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">images blob </v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
@@ -2423,7 +2509,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2438,7 +2524,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2456,7 +2542,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2464,13 +2550,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2480,7 +2566,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2496,7 +2582,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2510,7 +2596,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2560,19 +2646,19 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2587,13 +2673,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2601,7 +2687,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2615,23 +2701,22 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3">
+      <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>54</v>
+      <c r="J12" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="L12" t="e">
         <f>C12&amp;" "&amp;#REF!&amp;" "&amp;IF(D12&lt;&gt;"","("&amp;D12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2643,13 +2728,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2667,13 +2752,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E14" s="3">
         <v>200</v>
@@ -2681,22 +2766,28 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>answer varchar (200)</v>
+        <v>answer varchar (200),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -2705,7 +2796,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">images blob </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -2962,7 +3053,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/documents/DB定義書.xlsx
+++ b/documents/DB定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D03339-407C-434F-9283-4574B7EC36B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4542A67-ECD7-4C66-AF0C-0474D0073280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="390" windowWidth="11010" windowHeight="10710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="81">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -496,6 +496,62 @@
   </si>
   <si>
     <t>images</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問ID（外部キー）</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>氏名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（外部キー）ユーザーID</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>氏名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（ユーザーID　外部キー）</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガイブ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -503,7 +559,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,8 +591,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,6 +618,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,7 +681,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -632,6 +710,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -978,7 +1062,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1360,7 +1444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1912,8 +1996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A05C91-D439-4FD5-A784-163B0AF6EB64}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2097,8 +2181,8 @@
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>30</v>
+      <c r="B12" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>33</v>
@@ -2153,7 +2237,7 @@
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -2181,7 +2265,7 @@
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -2523,8 +2607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5550F736-1994-4C96-B9A9-309DD37E5E30}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2672,8 +2756,8 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>30</v>
+      <c r="B11" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>33</v>
@@ -2803,7 +2887,9 @@
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>

--- a/documents/DB定義書.xlsx
+++ b/documents/DB定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4542A67-ECD7-4C66-AF0C-0474D0073280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4815544-9862-4C1C-9F79-C71907348137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="79">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -500,58 +500,6 @@
   </si>
   <si>
     <t>質問ID（外部キー）</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガイブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>氏名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（外部キー）ユーザーID</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガイブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>氏名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（ユーザーID　外部キー）</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガイブ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -559,7 +507,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,15 +541,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -623,7 +563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,7 +1001,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1996,8 +1936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A05C91-D439-4FD5-A784-163B0AF6EB64}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2174,18 +2114,18 @@
       </c>
       <c r="L11" t="str">
         <f>C12&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>name smallint ,</v>
+        <v>id smallint ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>80</v>
+      <c r="B12" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>47</v>
@@ -2608,7 +2548,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B12" sqref="A12:XFD12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2756,11 +2696,11 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>79</v>
+      <c r="B11" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>47</v>
@@ -2777,7 +2717,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>name varchar (20),</v>
+        <v>id varchar (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -2880,7 +2820,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">images blob </v>
+        <v>images blob ,</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -2890,9 +2830,15 @@
       <c r="B16" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="3">
+        <v>20</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2900,7 +2846,7 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>q_id varchar (20)</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">

--- a/documents/DB定義書.xlsx
+++ b/documents/DB定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4815544-9862-4C1C-9F79-C71907348137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D73344E-7116-4AFA-8EFE-8C7EF3CDA20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="80">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -472,10 +472,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>わたしもボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>metoo</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -500,6 +496,29 @@
   </si>
   <si>
     <t>質問ID（外部キー）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私もボタン</t>
+    <rPh sb="0" eb="1">
+      <t>ワタシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0:押す前 1:押した後</t>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アト</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1001,7 +1020,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1936,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A05C91-D439-4FD5-A784-163B0AF6EB64}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2068,8 +2087,8 @@
         <v>47</v>
       </c>
       <c r="E10" s="3">
-        <f>10^30</f>
-        <v>1E+30</v>
+        <f>30</f>
+        <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>50</v>
@@ -2342,13 +2361,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -2357,7 +2376,9 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="L20" t="str">
         <f t="shared" ref="L20:L29" si="0">C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
         <v>metoo int ,</v>
@@ -2368,15 +2389,17 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E21" s="3">
+        <v>100</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -2384,7 +2407,7 @@
       <c r="J21" s="3"/>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">images blob </v>
+        <v>images varchar (100)</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
@@ -2547,7 +2570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5550F736-1994-4C96-B9A9-309DD37E5E30}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -2804,13 +2827,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2828,7 +2851,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>54</v>

--- a/documents/DB定義書.xlsx
+++ b/documents/DB定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D73344E-7116-4AFA-8EFE-8C7EF3CDA20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41097769-67DB-4683-9C41-6FB10BC555D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -487,10 +487,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>blob</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>images</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -519,6 +515,10 @@
     <rPh sb="11" eb="12">
       <t>アト</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Timestamp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1955,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A05C91-D439-4FD5-A784-163B0AF6EB64}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2217,7 +2217,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C15&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>s_category date ,</v>
+        <v>s_category Timestamp ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -2259,7 +2259,7 @@
         <v>46</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2361,7 +2361,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>72</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" ref="L20:L29" si="0">C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
@@ -2392,7 +2392,7 @@
         <v>74</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>47</v>
@@ -2570,8 +2570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5550F736-1994-4C96-B9A9-309DD37E5E30}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2781,7 +2781,7 @@
         <v>46</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2791,7 +2791,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>date date ,</v>
+        <v>date Timestamp ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -2830,12 +2830,14 @@
         <v>74</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -2843,7 +2845,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>images blob ,</v>
+        <v>images varchar (100),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -2851,7 +2853,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>54</v>

--- a/documents/DB定義書.xlsx
+++ b/documents/DB定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41097769-67DB-4683-9C41-6FB10BC555D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1D12C7-2C58-4005-8431-FA78888C940B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8970" yWindow="405" windowWidth="12375" windowHeight="10710" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="80">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -2570,8 +2570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5550F736-1994-4C96-B9A9-309DD37E5E30}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2707,6 +2707,9 @@
       <c r="F10" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="G10" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3116,5 +3119,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/DB定義書.xlsx
+++ b/documents/DB定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1D12C7-2C58-4005-8431-FA78888C940B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C555343-851C-49B0-86A8-CFC9EC3156D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8970" yWindow="405" windowWidth="12375" windowHeight="10710" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5805" yWindow="0" windowWidth="12375" windowHeight="10710" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="80">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1956,7 +1956,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2407,25 +2407,35 @@
       <c r="J21" s="3"/>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
-        <v>images varchar (100)</v>
+        <v>images varchar (100),</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="3">
+        <v>20</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>name varchar (20)</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
@@ -2570,8 +2580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5550F736-1994-4C96-B9A9-309DD37E5E30}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2874,25 +2884,35 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>q_id varchar (20)</v>
+        <v>q_id varchar (20),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>name varchar (20)</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
